--- a/Calavaro_A_TCO_2021.xlsx
+++ b/Calavaro_A_TCO_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Marco\Università\Corsi\Secondo semestre\ISW 2\Calavaro\Lezione 11\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCC3A6C-AFC0-4ADB-87E5-14358AC824F0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A015F3FB-2D63-4D9D-920C-28CCF1B45B5D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sizing" sheetId="10" r:id="rId1"/>
@@ -2860,9 +2860,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>x86 cost</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2959,9 +2956,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>LinuxOne cost</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -5730,11 +5724,11 @@
   </sheetPr>
   <dimension ref="A1:AC126"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -7165,7 +7159,7 @@
         <v>9</v>
       </c>
       <c r="P30" s="10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q30" s="86">
         <f t="shared" si="20"/>
@@ -7893,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="P40" s="10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q40" s="86">
         <f t="shared" si="36"/>
@@ -8652,7 +8646,7 @@
         <v>4</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q50" s="86">
         <f t="shared" si="58"/>
@@ -9411,7 +9405,7 @@
         <v>7</v>
       </c>
       <c r="P60" s="10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q60" s="86">
         <f t="shared" si="85"/>
@@ -10170,7 +10164,7 @@
         <v>15</v>
       </c>
       <c r="P70" s="10" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Q70" s="86">
         <f t="shared" si="112"/>
@@ -20068,7 +20062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30997B01-698F-403F-98C0-B8367570E33F}">
   <dimension ref="A2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
